--- a/projetos_consultsie.xlsx
+++ b/projetos_consultsie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.cando\Desktop\pyimpressionador\pyimpressionador\00.Cases Reais\Sensedata\PROJETO DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196C350-0621-41E5-8098-737EBF62A242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5376A55F-51FB-48F7-8291-184944323831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="2280" windowWidth="21600" windowHeight="11175" xr2:uid="{184A9C9A-669A-4E58-912D-D0E9C3228DE6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{184A9C9A-669A-4E58-912D-D0E9C3228DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="projetos_consultsie" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
   <si>
     <t>Cliente</t>
   </si>
@@ -167,9 +167,6 @@
     <t>DREHMER CONSTRUCOES LTDA</t>
   </si>
   <si>
-    <t>Apelido</t>
-  </si>
-  <si>
     <t>NEO SERVICE</t>
   </si>
   <si>
@@ -503,157 +500,7 @@
     <t>http://muller.sienge.com.br/</t>
   </si>
   <si>
-    <t>Apelido2</t>
-  </si>
-  <si>
-    <t>Cliente 1</t>
-  </si>
-  <si>
-    <t>Cliente 2</t>
-  </si>
-  <si>
-    <t>Cliente 3</t>
-  </si>
-  <si>
-    <t>Cliente 4</t>
-  </si>
-  <si>
-    <t>Cliente 5</t>
-  </si>
-  <si>
-    <t>Cliente 6</t>
-  </si>
-  <si>
-    <t>Cliente 7</t>
-  </si>
-  <si>
-    <t>Cliente 8</t>
-  </si>
-  <si>
-    <t>Cliente 9</t>
-  </si>
-  <si>
-    <t>Cliente 10</t>
-  </si>
-  <si>
-    <t>Cliente 11</t>
-  </si>
-  <si>
-    <t>Cliente 12</t>
-  </si>
-  <si>
-    <t>Cliente 13</t>
-  </si>
-  <si>
-    <t>Cliente 14</t>
-  </si>
-  <si>
-    <t>Cliente 15</t>
-  </si>
-  <si>
-    <t>Cliente 16</t>
-  </si>
-  <si>
-    <t>Cliente 17</t>
-  </si>
-  <si>
-    <t>Cliente 18</t>
-  </si>
-  <si>
-    <t>Cliente 19</t>
-  </si>
-  <si>
-    <t>Cliente 20</t>
-  </si>
-  <si>
-    <t>Cliente 21</t>
-  </si>
-  <si>
-    <t>Cliente 22</t>
-  </si>
-  <si>
-    <t>Cliente 23</t>
-  </si>
-  <si>
-    <t>Cliente 24</t>
-  </si>
-  <si>
-    <t>Cliente 25</t>
-  </si>
-  <si>
-    <t>Cliente 26</t>
-  </si>
-  <si>
-    <t>Cliente 27</t>
-  </si>
-  <si>
-    <t>Cliente 28</t>
-  </si>
-  <si>
-    <t>Cliente 29</t>
-  </si>
-  <si>
-    <t>Cliente 30</t>
-  </si>
-  <si>
-    <t>Cliente 31</t>
-  </si>
-  <si>
-    <t>Cliente 32</t>
-  </si>
-  <si>
-    <t>Cliente 33</t>
-  </si>
-  <si>
-    <t>Cliente 34</t>
-  </si>
-  <si>
-    <t>Cliente 35</t>
-  </si>
-  <si>
-    <t>Cliente 36</t>
-  </si>
-  <si>
-    <t>Cliente 37</t>
-  </si>
-  <si>
-    <t>Cliente 38</t>
-  </si>
-  <si>
-    <t>Cliente 39</t>
-  </si>
-  <si>
-    <t>Cliente 40</t>
-  </si>
-  <si>
-    <t>Cliente 41</t>
-  </si>
-  <si>
-    <t>Cliente 42</t>
-  </si>
-  <si>
-    <t>Cliente 43</t>
-  </si>
-  <si>
-    <t>Cliente 44</t>
-  </si>
-  <si>
-    <t>Cliente 45</t>
-  </si>
-  <si>
-    <t>Cliente 46</t>
-  </si>
-  <si>
-    <t>Cliente 47</t>
-  </si>
-  <si>
-    <t>Cliente 48</t>
-  </si>
-  <si>
-    <t>Cliente 49</t>
-  </si>
-  <si>
-    <t>Cliente 50</t>
+    <t>Nome</t>
   </si>
 </sst>
 </file>
@@ -1532,1065 +1379,911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6AE41-F392-46C7-B3F1-76AE953A5833}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1">
         <v>44893</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
         <v>45000</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>45051</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
         <v>45061</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
         <v>45005</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
         <v>45016</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1">
         <v>45062</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1">
         <v>45075</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1">
         <v>45126</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
         <v>45107</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1">
         <v>45135</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="1">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
         <v>45134</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1">
         <v>45138</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="1">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1">
         <v>45138</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
         <v>45161</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1">
         <v>45167</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1">
         <v>45162</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="1">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1">
         <v>45188</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
         <v>45194</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1">
         <v>45186</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="1">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1">
         <v>45231</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1">
         <v>45226</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1">
         <v>45258</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1">
         <v>45233</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="1">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1">
         <v>45273</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1">
         <v>45278</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="1">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
         <v>45282</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="1">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1">
         <v>45281</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
         <v>45301</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="1">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1">
         <v>45315</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="1">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1">
         <v>45330</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="1">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1">
         <v>45330</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="1">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1">
         <v>45337</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1">
         <v>45358</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="1">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1">
         <v>45385</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="1">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1">
         <v>45406</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="1">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1">
         <v>45393</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="1">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
         <v>45419</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="1">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1">
         <v>45446</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="1">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1">
         <v>45446</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="1">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1">
         <v>45439</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="1">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1">
         <v>45448</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="1">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1">
         <v>45447</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="1">
+      <c r="C46" s="1">
         <v>45504</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="1">
-        <v>45504</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="C47" s="1">
+        <v>45509</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>143</v>
       </c>
-      <c r="B47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="1">
-        <v>45509</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="C48" s="1">
+        <v>45511</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>144</v>
       </c>
-      <c r="B48" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="1">
-        <v>45511</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45520</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="1">
-        <v>45520</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>150</v>
       </c>
-      <c r="B50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1">
+        <v>45525</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="1">
-        <v>45525</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>152</v>
       </c>
-      <c r="B51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1">
+        <v>45526</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D51" s="1">
-        <v>45526</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{5C54E2FC-DAC5-4AC8-9A7A-B7EA362AEF68}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{97168DF8-8F87-4081-86A7-D4DFC38A0063}"/>
-    <hyperlink ref="F20" r:id="rId3" xr:uid="{9F10B04C-495F-4820-AE0B-48F752397227}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{310C5ADB-CA41-42F0-8918-01F126968A26}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{89892847-C813-4BBB-B225-5602F272BA8D}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{3AFD79F0-3B01-4AE8-87C0-C7D574C4F983}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{4295E61B-23C0-490C-BC3F-8BDD9C95C528}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{0DCB71BA-E6DF-4E56-A317-BDDBDFB4D085}"/>
-    <hyperlink ref="F28" r:id="rId9" xr:uid="{6508074D-4EA7-49B6-B15A-3959917214E5}"/>
-    <hyperlink ref="F39" r:id="rId10" xr:uid="{B2DF5702-CCE0-4F0C-89C4-F576EA8B9394}"/>
-    <hyperlink ref="F40" r:id="rId11" xr:uid="{C0AF3513-E324-497C-8366-5A7209E85057}"/>
-    <hyperlink ref="F41" r:id="rId12" xr:uid="{35EF31CA-CDC6-4EA8-947C-7360BE0A6D6B}"/>
-    <hyperlink ref="F43" r:id="rId13" xr:uid="{DB7D433D-8E0D-4CEA-82D7-8150675AB04E}"/>
-    <hyperlink ref="F45" r:id="rId14" xr:uid="{C15BC12A-1CAE-433E-88A1-E26AA134442A}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{76228911-AF94-4B3E-B22E-BEF09E45F793}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{B23C7719-BFF6-4ED5-8CD4-3360F3654D9E}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{D63A3276-2E2F-4093-B237-24ADC4E55763}"/>
-    <hyperlink ref="F24" r:id="rId18" xr:uid="{CBE1E6E1-3283-4D83-824C-2306E9266946}"/>
-    <hyperlink ref="F25" r:id="rId19" xr:uid="{E5225F9A-7A0C-48A3-B9A2-CD948331F60A}"/>
-    <hyperlink ref="F34" r:id="rId20" xr:uid="{DEAF5279-5E2A-4541-A5DB-C61A06CD35B6}"/>
-    <hyperlink ref="F35" r:id="rId21" xr:uid="{F1477A4D-30D1-4FE8-9562-E5CA337B4FC0}"/>
-    <hyperlink ref="F42" r:id="rId22" xr:uid="{AD8083DD-AED7-477F-B19E-2D7260799447}"/>
-    <hyperlink ref="F46" r:id="rId23" xr:uid="{9A1653B6-7D11-4CCD-A8D0-B35D77CF23B0}"/>
-    <hyperlink ref="F47" r:id="rId24" xr:uid="{0A7E8EF7-AE0B-40F5-8171-588AD4F493BB}"/>
-    <hyperlink ref="F48" r:id="rId25" xr:uid="{0464E635-4FB5-420B-8D30-AA3288E72175}"/>
-    <hyperlink ref="F49" r:id="rId26" xr:uid="{FD68B47F-33AF-4D88-ACC1-4E3F322E1537}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5C54E2FC-DAC5-4AC8-9A7A-B7EA362AEF68}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{97168DF8-8F87-4081-86A7-D4DFC38A0063}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{9F10B04C-495F-4820-AE0B-48F752397227}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{310C5ADB-CA41-42F0-8918-01F126968A26}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{89892847-C813-4BBB-B225-5602F272BA8D}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{3AFD79F0-3B01-4AE8-87C0-C7D574C4F983}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{4295E61B-23C0-490C-BC3F-8BDD9C95C528}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{0DCB71BA-E6DF-4E56-A317-BDDBDFB4D085}"/>
+    <hyperlink ref="E28" r:id="rId9" xr:uid="{6508074D-4EA7-49B6-B15A-3959917214E5}"/>
+    <hyperlink ref="E39" r:id="rId10" xr:uid="{B2DF5702-CCE0-4F0C-89C4-F576EA8B9394}"/>
+    <hyperlink ref="E40" r:id="rId11" xr:uid="{C0AF3513-E324-497C-8366-5A7209E85057}"/>
+    <hyperlink ref="E41" r:id="rId12" xr:uid="{35EF31CA-CDC6-4EA8-947C-7360BE0A6D6B}"/>
+    <hyperlink ref="E43" r:id="rId13" xr:uid="{DB7D433D-8E0D-4CEA-82D7-8150675AB04E}"/>
+    <hyperlink ref="E45" r:id="rId14" xr:uid="{C15BC12A-1CAE-433E-88A1-E26AA134442A}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{76228911-AF94-4B3E-B22E-BEF09E45F793}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{B23C7719-BFF6-4ED5-8CD4-3360F3654D9E}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{D63A3276-2E2F-4093-B237-24ADC4E55763}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{CBE1E6E1-3283-4D83-824C-2306E9266946}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{E5225F9A-7A0C-48A3-B9A2-CD948331F60A}"/>
+    <hyperlink ref="E34" r:id="rId20" xr:uid="{DEAF5279-5E2A-4541-A5DB-C61A06CD35B6}"/>
+    <hyperlink ref="E35" r:id="rId21" xr:uid="{F1477A4D-30D1-4FE8-9562-E5CA337B4FC0}"/>
+    <hyperlink ref="E42" r:id="rId22" xr:uid="{AD8083DD-AED7-477F-B19E-2D7260799447}"/>
+    <hyperlink ref="E46" r:id="rId23" xr:uid="{9A1653B6-7D11-4CCD-A8D0-B35D77CF23B0}"/>
+    <hyperlink ref="E47" r:id="rId24" xr:uid="{0A7E8EF7-AE0B-40F5-8171-588AD4F493BB}"/>
+    <hyperlink ref="E48" r:id="rId25" xr:uid="{0464E635-4FB5-420B-8D30-AA3288E72175}"/>
+    <hyperlink ref="E49" r:id="rId26" xr:uid="{FD68B47F-33AF-4D88-ACC1-4E3F322E1537}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
